--- a/medicine/Sexualité et sexologie/Entreprise_à_caractère_sexuel/Entreprise_à_caractère_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Entreprise_à_caractère_sexuel/Entreprise_à_caractère_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entreprise_%C3%A0_caract%C3%A8re_sexuel</t>
+          <t>Entreprise_à_caractère_sexuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la loi des États-Unis, une entreprise à caractère sexuel (sexually oriented business[1]) est une entreprise qui fait partie de l'industrie du sexe, comme les sites de spectacles érotiques et les magasins d'accessoires érotiques. Les réglementations associées peuvent viser à décourager ce type d'entreprises, considérées comme nuisibles pour leur lien avec l'industrie du sexe[2].
-Bien que de nombreuses réglementations sur ces entreprises violent sans doute les droits conférés par le Premier amendement de la Constitution des États-Unis, les législateurs utilisent la doctrine des effets secondaires - pour laquelle les restrictions des droits du Premier Amendement sont légales si les restrictions peuvent empêcher de nuire à la communauté au sens large - pour justifier la réglementation des entreprises à caractère sexuel[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la loi des États-Unis, une entreprise à caractère sexuel (sexually oriented business) est une entreprise qui fait partie de l'industrie du sexe, comme les sites de spectacles érotiques et les magasins d'accessoires érotiques. Les réglementations associées peuvent viser à décourager ce type d'entreprises, considérées comme nuisibles pour leur lien avec l'industrie du sexe.
+Bien que de nombreuses réglementations sur ces entreprises violent sans doute les droits conférés par le Premier amendement de la Constitution des États-Unis, les législateurs utilisent la doctrine des effets secondaires - pour laquelle les restrictions des droits du Premier Amendement sont légales si les restrictions peuvent empêcher de nuire à la communauté au sens large - pour justifier la réglementation des entreprises à caractère sexuel.
 </t>
         </is>
       </c>
